--- a/medicine/Enfance/Fabulettes_(1969)/Fabulettes_(1969).xlsx
+++ b/medicine/Enfance/Fabulettes_(1969)/Fabulettes_(1969).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Fabulettes (1969) est un album d'Anne Sylvestre sorti sous le label Disques Meys[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Fabulettes (1969) est un album d'Anne Sylvestre sorti sous le label Disques Meys. 
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces fabulettes marquent le retour d'Anne Sylvestre à la chanson pour enfant après le premier EP sorti chez Philips en 1962.
-Les titres de l'album sortent d'abord la même année répartis en trois EP (supers 45 tours). L'album est ressorti en CD sous le même label en 1989[2].
+Les titres de l'album sortent d'abord la même année répartis en trois EP (supers 45 tours). L'album est ressorti en CD sous le même label en 1989.
 Après son départ de chez Meys, Anne Sylvestre reprendra l'enregistrement des fabulettes sous son propre label en 1976.
-Quatre des titres de cet album de Fabulettes reparaissent en 1987 dans le 33 tours "Mercredisque géant 6" intitulé Les Premières Fabulettes, avec les fabulettes de 1962 et des titres inédits : À sept ans, Balle qui détales, Histoire de vélo et La Chanson de Marine[3].
+Quatre des titres de cet album de Fabulettes reparaissent en 1987 dans le 33 tours "Mercredisque géant 6" intitulé Les Premières Fabulettes, avec les fabulettes de 1962 et des titres inédits : À sept ans, Balle qui détales, Histoire de vélo et La Chanson de Marine.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>LP</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les chansons sont écrites et composées par Anne Sylvestre.
 </t>
@@ -578,18 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fabulettes
-Face A
-Toutes les chansons sont écrites et composées par Anne Sylvestre.
-Face B
-Toutes les chansons sont écrites et composées par Anne Sylvestre.
-Fabulettes 2
-Face A
-Toutes les chansons sont écrites et composées par Anne Sylvestre.
-Face B
-Toutes les chansons sont écrites et composées par Anne Sylvestre.
-Fabulettes 3
-Face A
+          <t>Fabulettes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Face A
 Toutes les chansons sont écrites et composées par Anne Sylvestre.
 Face B
 Toutes les chansons sont écrites et composées par Anne Sylvestre.
@@ -618,10 +629,92 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>EP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fabulettes 2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Face A
+Toutes les chansons sont écrites et composées par Anne Sylvestre.
+Face B
+Toutes les chansons sont écrites et composées par Anne Sylvestre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fabulettes_(1969)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabulettes_(1969)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fabulettes 3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Face A
+Toutes les chansons sont écrites et composées par Anne Sylvestre.
+Face B
+Toutes les chansons sont écrites et composées par Anne Sylvestre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fabulettes_(1969)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabulettes_(1969)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Arrangements et direction d’orchestre : François Rauber
 Prise de son : Claude Achallé, Thierry Alazard
